--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2625342.229432985</v>
+        <v>2630281.492282017</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>39.17821795430115</v>
+        <v>56.16016440904729</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -828,10 +828,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>86.11283245544996</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>399.4340088014359</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>12.0380875553036</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>59.72683757586884</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>155.2114886365809</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>163.148233254534</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>61.26526235735049</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>76.71587097450829</v>
+        <v>59.72683757586857</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1429,7 +1429,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1530,10 +1530,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>39.2171669238958</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>283.2741843940248</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1624,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113192</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>15.45373134607575</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>224.8952567231525</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710089</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,16 +2004,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>78.92605066944047</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>224.8952567231525</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634833</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>131.7797102890551</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>139.1537278750036</v>
       </c>
     </row>
     <row r="23">
@@ -2335,10 +2335,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>5.562624396425339</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,13 +2715,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>106.4165381846901</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3009,16 +3009,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>237.6821551249389</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -3246,13 +3246,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>30.89505924232732</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417098</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3477,16 +3477,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>131.0137802721648</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3717,10 +3717,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V40" t="n">
-        <v>161.1706059301398</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3954,10 +3954,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>203.8435192151922</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404423</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4143,13 +4143,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>25.03576683016942</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4197,10 +4197,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>858.4397953655689</v>
+        <v>1837.140060718708</v>
       </c>
       <c r="C2" t="n">
-        <v>858.4397953655689</v>
+        <v>1837.140060718708</v>
       </c>
       <c r="D2" t="n">
-        <v>500.1740967588184</v>
+        <v>1478.874362111957</v>
       </c>
       <c r="E2" t="n">
-        <v>114.3858441605742</v>
+        <v>1093.086109513713</v>
       </c>
       <c r="F2" t="n">
-        <v>107.4403434113707</v>
+        <v>682.1002047241054</v>
       </c>
       <c r="G2" t="n">
-        <v>93.51693934996158</v>
+        <v>264.1363966222923</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4360,22 +4360,22 @@
         <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>2302.336936304455</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V2" t="n">
-        <v>1971.274048960885</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W2" t="n">
-        <v>1618.50539369077</v>
+        <v>1837.140060718708</v>
       </c>
       <c r="X2" t="n">
-        <v>1245.039635429691</v>
+        <v>1837.140060718708</v>
       </c>
       <c r="Y2" t="n">
-        <v>1245.039635429691</v>
+        <v>1837.140060718708</v>
       </c>
     </row>
     <row r="3">
@@ -4385,40 +4385,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>438.9553738610024</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="C4" t="n">
-        <v>438.9553738610024</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>288.8387344486666</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>140.9256408662735</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>140.9256408662735</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610024</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610024</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="W4" t="n">
-        <v>438.9553738610024</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="X4" t="n">
-        <v>438.9553738610024</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="Y4" t="n">
-        <v>438.9553738610024</v>
+        <v>667.8624625746712</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>632.3182666762914</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="C5" t="n">
-        <v>632.3182666762914</v>
+        <v>1765.917509578903</v>
       </c>
       <c r="D5" t="n">
-        <v>632.3182666762914</v>
+        <v>1407.651810972153</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762914</v>
+        <v>1021.863558373909</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>610.877653584301</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4564,55 +4564,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990286</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2466.35473959099</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2135.291852247419</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>1782.523196977305</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="X5" t="n">
-        <v>1409.057438716225</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="Y5" t="n">
-        <v>1018.918106740413</v>
+        <v>2134.880026519315</v>
       </c>
     </row>
     <row r="6">
@@ -4637,22 +4637,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036447</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598707</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064347</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>559.1928012785278</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>409.076161866192</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>261.1630682837989</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>114.2731207858886</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>114.2731207858886</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064347</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064347</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064347</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1187.828354776384</v>
+        <v>1528.349585887293</v>
       </c>
       <c r="C8" t="n">
-        <v>818.8658378359718</v>
+        <v>1528.349585887293</v>
       </c>
       <c r="D8" t="n">
-        <v>460.6001392292213</v>
+        <v>1528.349585887293</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097704</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177357</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036447</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036447</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4819,7 +4819,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2635.26498762696</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2635.26498762696</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2635.26498762696</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V8" t="n">
-        <v>2304.202100283389</v>
+        <v>1881.118241157407</v>
       </c>
       <c r="W8" t="n">
-        <v>1951.433445013275</v>
+        <v>1528.349585887293</v>
       </c>
       <c r="X8" t="n">
-        <v>1577.967686752195</v>
+        <v>1528.349585887293</v>
       </c>
       <c r="Y8" t="n">
-        <v>1187.828354776384</v>
+        <v>1528.349585887293</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>201.8560754027576</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>201.8560754027576</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036447</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X10" t="n">
-        <v>500.1394333084173</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y10" t="n">
-        <v>279.3468541648872</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="11">
@@ -5035,19 +5035,19 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5062,7 +5062,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014293</v>
@@ -5080,7 +5080,7 @@
         <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590537</v>
@@ -5120,25 +5120,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>709.4934589365139</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1016.813592216476</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1346.676219880508</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,10 +5175,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>286.9470307957487</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
         <v>97.21709146028587</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609664</v>
+        <v>789.0753054710162</v>
       </c>
       <c r="V13" t="n">
-        <v>986.0022165609664</v>
+        <v>789.0753054710162</v>
       </c>
       <c r="W13" t="n">
-        <v>696.5850465240057</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X13" t="n">
-        <v>468.5954956259884</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y13" t="n">
-        <v>468.5954956259884</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805485</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256436</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277036</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>709.4934589365134</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1016.813592216475</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1346.676219880508</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028589</v>
+        <v>263.2449295548433</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028589</v>
+        <v>263.2449295548433</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028589</v>
+        <v>263.2449295548433</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028589</v>
+        <v>263.2449295548433</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028589</v>
+        <v>263.2449295548433</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028589</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1271.749344574921</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>1017.064856369034</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W16" t="n">
-        <v>727.647686332073</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X16" t="n">
-        <v>499.6581354340557</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y16" t="n">
-        <v>278.8655562905256</v>
+        <v>444.8933943850831</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
         <v>904.3190116155888</v>
@@ -5509,28 +5509,28 @@
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
         <v>4454.632848899128</v>
@@ -5539,28 +5539,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256436</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277036</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341677</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028589</v>
+        <v>754.4177361809767</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028589</v>
+        <v>585.4815532530698</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028589</v>
+        <v>435.3649138407341</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028589</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557903</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U19" t="n">
-        <v>1271.749344574921</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V19" t="n">
-        <v>1017.064856369034</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W19" t="n">
-        <v>727.647686332073</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="X19" t="n">
-        <v>499.6581354340557</v>
+        <v>936.0662010112164</v>
       </c>
       <c r="Y19" t="n">
-        <v>278.8655562905256</v>
+        <v>936.0662010112164</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
         <v>1701.09316900344</v>
@@ -5740,16 +5740,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
@@ -5767,37 +5767,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>549.3807322743215</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>380.4445493464146</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>230.3279099340789</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347409</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>1275.130855347409</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V22" t="n">
-        <v>1020.446367141522</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W22" t="n">
-        <v>731.0291971045613</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X22" t="n">
-        <v>731.0291971045613</v>
+        <v>237.776412546148</v>
       </c>
       <c r="Y22" t="n">
-        <v>731.0291971045613</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6065,25 +6065,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
         <v>488.1932370805469</v>
@@ -6223,16 +6223,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6241,37 +6241,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6302,25 +6302,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>503.0396462065439</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>395.5481934947357</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>395.5481934947357</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1275.130855347409</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>1020.446367141522</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
-        <v>731.0291971045613</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>503.0396462065439</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>503.0396462065439</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6448,28 +6448,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805464</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6481,10 +6481,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6530,13 +6530,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
@@ -6545,19 +6545,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,31 +6639,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765191</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>545.9992215018333</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
         <v>97.21709146028584</v>
@@ -6688,49 +6688,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6767,13 +6767,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
@@ -6782,19 +6782,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
         <v>97.21709146028584</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>964.1357418247865</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>675.0071030383447</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>643.7999724905393</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>643.7999724905393</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550601</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610189</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155891</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805473</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231262</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141866</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465299</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851614</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590534</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614723</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7004,34 +7004,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7125,22 +7125,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>786.0822064765186</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>653.7450546864532</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>425.7555037884359</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>425.7555037884359</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7189,13 +7189,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7210,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7241,34 +7241,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>247.3337308726215</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7365,19 +7365,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557902</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V40" t="n">
-        <v>1336.117678709276</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W40" t="n">
-        <v>1046.700508672316</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X40" t="n">
-        <v>818.7109577742983</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y40" t="n">
-        <v>597.9183786307682</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="41">
@@ -7402,40 +7402,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7478,34 +7478,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W43" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7639,40 +7639,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7715,34 +7715,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1362.552513755921</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1138.767098545427</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>849.6384597589849</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V46" t="n">
-        <v>594.9539715530981</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W46" t="n">
-        <v>594.9539715530981</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>594.9539715530981</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y46" t="n">
-        <v>594.9539715530981</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -8057,19 +8057,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>327.4218609627882</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>327.4218609627882</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451757</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>176.7176547498449</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8783,13 +8783,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445217</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>176.7176547498441</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229573</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987297922</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>128.029654174732</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23466,13 +23466,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>2.963168004552585</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23667,10 +23667,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>151.0398371173018</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23709,7 +23709,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>61.34209567542487</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23892,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>67.5079119771287</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23910,7 +23910,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>61.34209567542487</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>14.65425235751408</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24177,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>79.43092547709122</v>
       </c>
     </row>
     <row r="23">
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>192.3581855871779</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24603,13 +24603,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>60.83028291393769</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,7 +24618,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24651,19 +24651,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>14.45548819888907</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25089,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>221.2425840815007</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25365,16 +25365,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>155.5092180644262</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25605,10 +25605,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V40" t="n">
-        <v>90.9670373936882</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25842,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>82.39383318338511</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>82.39383318338574</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26031,13 +26031,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>172.8850431534338</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>803444.9333717128</v>
+        <v>803444.9333717127</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>803444.9333717128</v>
+        <v>803444.9333717129</v>
       </c>
     </row>
     <row r="8">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>803444.9333717127</v>
+        <v>803444.9333717128</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="C2" t="n">
         <v>615781.3273982127</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="E2" t="n">
-        <v>586543.589606563</v>
+        <v>586543.5896065631</v>
       </c>
       <c r="F2" t="n">
-        <v>586543.589606563</v>
+        <v>586543.5896065631</v>
       </c>
       <c r="G2" t="n">
-        <v>586543.5896065629</v>
+        <v>586543.5896065627</v>
       </c>
       <c r="H2" t="n">
         <v>586543.5896065629</v>
       </c>
       <c r="I2" t="n">
-        <v>586543.589606563</v>
+        <v>586543.5896065626</v>
       </c>
       <c r="J2" t="n">
         <v>586543.5896065629</v>
       </c>
       <c r="K2" t="n">
-        <v>586543.589606563</v>
+        <v>586543.5896065629</v>
       </c>
       <c r="L2" t="n">
-        <v>586543.5896065627</v>
+        <v>586543.5896065626</v>
       </c>
       <c r="M2" t="n">
         <v>586543.5896065626</v>
       </c>
       <c r="N2" t="n">
-        <v>586543.589606563</v>
+        <v>586543.5896065629</v>
       </c>
       <c r="O2" t="n">
+        <v>586543.5896065626</v>
+      </c>
+      <c r="P2" t="n">
         <v>586543.5896065629</v>
-      </c>
-      <c r="P2" t="n">
-        <v>586543.589606563</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.094354047381785e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26429,16 +26429,16 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687064</v>
+        <v>22174.60758687066</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687065</v>
+        <v>22174.60758687067</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687059</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
         <v>22174.60758687071</v>
@@ -26447,19 +26447,19 @@
         <v>22174.60758687071</v>
       </c>
       <c r="L4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.60758687077</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687072</v>
       </c>
     </row>
     <row r="5">
@@ -26472,40 +26472,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-222678.4976662661</v>
+        <v>-222678.4976662658</v>
       </c>
       <c r="C6" t="n">
-        <v>367289.3815482789</v>
+        <v>367289.381548279</v>
       </c>
       <c r="D6" t="n">
         <v>367289.3815482788</v>
       </c>
       <c r="E6" t="n">
-        <v>-53752.97166564193</v>
+        <v>-52875.83953189256</v>
       </c>
       <c r="F6" t="n">
-        <v>471407.0648112537</v>
+        <v>472284.1969450036</v>
       </c>
       <c r="G6" t="n">
-        <v>471407.0648112539</v>
+        <v>472284.1969450033</v>
       </c>
       <c r="H6" t="n">
-        <v>471407.0648112541</v>
+        <v>472284.1969450034</v>
       </c>
       <c r="I6" t="n">
-        <v>471407.064811254</v>
+        <v>472284.1969450032</v>
       </c>
       <c r="J6" t="n">
-        <v>294983.8456186608</v>
+        <v>295860.9777524104</v>
       </c>
       <c r="K6" t="n">
-        <v>471407.064811254</v>
+        <v>472284.1969450034</v>
       </c>
       <c r="L6" t="n">
-        <v>471407.0648112538</v>
+        <v>472284.1969450032</v>
       </c>
       <c r="M6" t="n">
-        <v>336606.0495774166</v>
+        <v>337483.1817111659</v>
       </c>
       <c r="N6" t="n">
-        <v>471407.064811254</v>
+        <v>472284.1969450034</v>
       </c>
       <c r="O6" t="n">
-        <v>471407.0648112538</v>
+        <v>472284.1969450032</v>
       </c>
       <c r="P6" t="n">
-        <v>471407.064811254</v>
+        <v>472284.1969450034</v>
       </c>
     </row>
   </sheetData>
@@ -26718,10 +26718,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.174484680172029e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.174484680172029e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26792,25 +26792,25 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.174484680172029e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.174484680172029e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27390,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>284.744554810056</v>
+        <v>267.7626083553099</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27548,10 +27548,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>81.19696980360095</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>152.4816825345735</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>14.35016121935905</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>239.1860799529857</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>96.44405126592628</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853697</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491427</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>63.37316471551392</v>
       </c>
     </row>
     <row r="8">
@@ -27855,25 +27855,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>218.7821368177277</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>113.150450451621</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>103.116109207429</v>
+        <v>120.1051426060687</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-1.147926610385719e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-6.64757550068851e-13</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28566,7 +28566,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28575,7 +28575,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28800,7 +28800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-3.643481746735726e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29997,7 +29997,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>1.665869761198172e-12</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30006,7 +30006,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>6.174484680172029e-14</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31281,46 +31281,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31457,28 +31457,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31518,46 +31518,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,10 +31989,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -32001,37 +32001,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,10 +32226,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,37 +32238,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32344,7 +32344,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,10 +33350,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,10 +33587,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,10 +33824,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,10 +34061,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>365.2844632307148</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>365.2844632307148</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,10 +35096,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
         <v>146.3614835535656</v>
@@ -35108,10 +35108,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355125</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35488,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>425.9753597058693</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504663</v>
@@ -35503,13 +35503,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>425.9753597058686</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734237</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,13 +36202,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36217,13 +36217,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
         <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,28 +37071,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349491</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
         <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
